--- a/GameDesign/Class/Druide/Documentation/DruidSkills.xlsx
+++ b/GameDesign/Class/Druide/Documentation/DruidSkills.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\Druide\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil1 (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil1 (4)" sheetId="4" r:id="rId4"/>
+    <sheet name="1-FountainOfImmortality" sheetId="1" r:id="rId1"/>
+    <sheet name="2-EnchantedFountain" sheetId="2" r:id="rId2"/>
+    <sheet name="3-ElixirOfPurity" sheetId="3" r:id="rId3"/>
+    <sheet name="4-MagicPotion" sheetId="4" r:id="rId4"/>
     <sheet name="Feuil1 (5)" sheetId="5" r:id="rId5"/>
     <sheet name="Feuil1 (6)" sheetId="6" r:id="rId6"/>
-    <sheet name="Feuil1 (7)" sheetId="7" r:id="rId7"/>
+    <sheet name="7-KnowledgeStone" sheetId="7" r:id="rId7"/>
     <sheet name="Feuil1 (8)" sheetId="8" r:id="rId8"/>
     <sheet name="Feuil1 (9)" sheetId="9" r:id="rId9"/>
     <sheet name="Feuil1 (10)" sheetId="10" r:id="rId10"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t>[[AP: 0 ]]</t>
   </si>
@@ -90,6 +90,147 @@
   </si>
   <si>
     <t>[[Number of turns between two casts: -  ]]</t>
+  </si>
+  <si>
+    <t>Fountain Of Immortality</t>
+  </si>
+  <si>
+    <t>Effect name: ''Incurable''.</t>
+  </si>
+  <si>
+    <t>Effect name: ''Reanimated''.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reanimate an K/O entity that died on the glyph at his turn.                                                                       The entity can't be reanimated a second time.                                                               The reanimated entity can't be healed.                                            </t>
+  </si>
+  <si>
+    <t>Reanimated entity: [[HP set to 60% of max HP]]</t>
+  </si>
+  <si>
+    <t>Reanimated entity: [[-1 AP, -1 MP, -1 Range, -100% Dark resistance]] (00 turns)</t>
+  </si>
+  <si>
+    <t>[[AP: 7 ]]</t>
+  </si>
+  <si>
+    <t>[[MP: 2 ]]</t>
+  </si>
+  <si>
+    <t>[[Modifiable range: Yes ]]</t>
+  </si>
+  <si>
+    <t>[[Line of sight: No ]]</t>
+  </si>
+  <si>
+    <t>[[Range: 1-2 ]]</t>
+  </si>
+  <si>
+    <t>[[Cast in straight line: Yes ]]</t>
+  </si>
+  <si>
+    <t>[[Number of turns between two casts: 8 ]]</t>
+  </si>
+  <si>
+    <t>[[Area of effect: - Square of 1 cell around the summon]]</t>
+  </si>
+  <si>
+    <t>Summons a ''Fountain Of Immortality'' [[75% summoner HP, 0 AP, 0 MP, -50% earth resistence, -25% fire resistence, 50% water resistence, 25% air resistence, 100% light resistence, -100% dark resistence]]</t>
+  </si>
+  <si>
+    <t>Reanimated entity: Reanimate whit the ''Incurable'' effect. (00 turns)</t>
+  </si>
+  <si>
+    <t>[[Area of effect: - Circle of 2 cells radius around the summon ]]</t>
+  </si>
+  <si>
+    <t>Enchanted Fountain</t>
+  </si>
+  <si>
+    <t>[[AP: 4 ]]</t>
+  </si>
+  <si>
+    <t>[[MP: 1 ]]</t>
+  </si>
+  <si>
+    <t>[[Range: 1-3 ]]</t>
+  </si>
+  <si>
+    <t>[[Number of turns between two casts: 5 ]]</t>
+  </si>
+  <si>
+    <t>Summons a ''Enchanted Fountain'' [[40% summoner HP, 0 AP, 0 MP, -50% earth resistence, -25% fire resistence, 50% water resistence, 25% air resistence, 100% light resistence, -100% dark resistence]]</t>
+  </si>
+  <si>
+    <t>Elixir Of Purity</t>
+  </si>
+  <si>
+    <t>[[Number of turns between two casts: 2 ]]</t>
+  </si>
+  <si>
+    <t>[[AP: 2 ]]</t>
+  </si>
+  <si>
+    <t>[[Range: 0-4 ]]</t>
+  </si>
+  <si>
+    <t>[[Line of sight: Yes ]]</t>
+  </si>
+  <si>
+    <t>[[Cast in straight line: No ]]</t>
+  </si>
+  <si>
+    <t>[[Area of effect: - Single cell]]</t>
+  </si>
+  <si>
+    <t>Target: [[Reduce all buff by 1 turn ]]</t>
+  </si>
+  <si>
+    <t>Reduce the buff duration of an entity.</t>
+  </si>
+  <si>
+    <t>Magic Potion</t>
+  </si>
+  <si>
+    <t>Inflicts Water-type damage on ennemies                                             OR                                                                                                     Heal Water-type on allies.</t>
+  </si>
+  <si>
+    <t>Inflicts Water-type damage on ennemies                                             AND                                                                                                     Heal Water-type on allies.</t>
+  </si>
+  <si>
+    <t>[[AP: 3 ]]</t>
+  </si>
+  <si>
+    <t>[[Number of casts per turn: 3 ]]</t>
+  </si>
+  <si>
+    <t>[[Number of cast per turn per target: 1 ]]</t>
+  </si>
+  <si>
+    <t>On ennemy: [[Damage:  25 water ]]</t>
+  </si>
+  <si>
+    <t>On allies: [[Heal: 50 water ]]</t>
+  </si>
+  <si>
+    <t>On ennemy: [[Damage:  30-35 water ]]</t>
+  </si>
+  <si>
+    <t>On allies: [[Heal:  30-35 water ]]</t>
+  </si>
+  <si>
+    <t>Knowledge Stone</t>
+  </si>
+  <si>
+    <t>[[Range: 0-6 ]]</t>
+  </si>
+  <si>
+    <t>On ennemy: [[Increase cooldown of all skills by 1 ]]</t>
+  </si>
+  <si>
+    <t>On self OR allie: [[Reduce cooldown of all skills by 1 ]]</t>
+  </si>
+  <si>
+    <t>Increase the cooldown of an ennemie skills.                                        OR                                                                                                Reduce the cooldown of the caster or an allie skills.</t>
   </si>
 </sst>
 </file>
@@ -155,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,11 +313,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -199,6 +355,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,16 +680,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
     <col min="4" max="6" width="2.85546875" customWidth="1"/>
     <col min="7" max="7" width="78.5703125" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" customWidth="1"/>
@@ -537,7 +703,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -546,119 +712,119 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
+      <c r="C20" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
+      <c r="C22" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -667,61 +833,42 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
-        <v>10</v>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +1118,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -980,138 +1127,130 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="C5" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
+      <c r="C19" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
+      <c r="C20" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1120,42 +1259,15 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="1"/>
+    </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1300,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1197,69 +1309,67 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1271,45 +1381,37 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -1320,59 +1422,13 @@
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1382,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1461,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1414,182 +1470,140 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="C5" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
+    <row r="22" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2033,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2070,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2065,69 +2079,67 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="C5" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2139,108 +2151,61 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="1"/>
-      <c r="C29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
